--- a/biology/Zoologie/Hilara/Hilara.xlsx
+++ b/biology/Zoologie/Hilara/Hilara.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hilara est un genre d'insectes diptères de la famille des Empididae et de la sous-famille des Empidinae. C'est un taxon d'espèces actuelles mais il existe aussi quatre espèces fossiles (Hilara heerii, Hilara litigiosa, Hilara royoi, Hilara tarda) datant de l'Éocène au Miocène.
 </t>
@@ -511,9 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Hilara est décrit par l'entomologiste allemand Johann Wilhelm Meigen (1764-1845) en 1822[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Hilara est décrit par l'entomologiste allemand Johann Wilhelm Meigen (1764-1845) en 1822.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Espèces fossiles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Paleobiology Database en 2023, le nombre d'espèces fossiles est de quatre[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database en 2023, le nombre d'espèces fossiles est de quatre :
 †Hilara heerii Meunier, 1915
 †Hilara litigiosa Meunier, 1908
 †Hilara royoi Gil Collado, 1926
@@ -578,8 +594,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">A
-Hilara aartseni - 
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hilara aartseni - 
 Hilara abdominalis - 
 Hilara acephala - 
 Hilara acuminata - 
@@ -629,8 +650,43 @@
 Hilara auripila - 
 Hilara autumnalis - 
 Hilara azauensis
-B
-Hilara baculifer - 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hilara</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hilara</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hilara baculifer - 
 Hilara baehrmanni - 
 Hilara baethis - 
 Hilara balearica - 
@@ -667,8 +723,43 @@
 Hilara brevivittata - 
 Hilara brunnipes - 
 Hilara bulgarica
-C
-Hilara caerulescens - 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hilara</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hilara</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hilara caerulescens - 
 Hilara calinota - 
 Hilara campinosensis - 
 Hilara cana - 
@@ -713,8 +804,43 @@
 Hilara curvipes - 
 Hilara cypriana - 
 Hilara czernyi
-D
-Hilara dalmatina - 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hilara</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hilara</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hilara dalmatina - 
 Hilara danielssoni - 
 Hilara delicatula - 
 Hilara delta - 
@@ -735,8 +861,43 @@
 Hilara dracophylli - 
 Hilara dubia - 
 Hilara dzhantuganensis
-E
-Hilara echinata - 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hilara</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hilara</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hilara echinata - 
 Hilara efficiens - 
 Hilara elegans - 
 Hilara embartaki - 
@@ -744,8 +905,43 @@
 Hilara ephippium - 
 Hilara escorialensis - 
 Hilara eviana
-F
-Hilara fasciata - 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hilara</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hilara</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hilara fasciata - 
 Hilara fascipennis - 
 Hilara femorata - 
 Hilara femorella - 
@@ -769,8 +965,43 @@
 Hilara fuscipennis - 
 Hilara fuscipes - 
 Hilara fusitibia
-G
-Hilara galactoptera - 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Hilara</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hilara</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hilara galactoptera - 
 Hilara gallica - 
 Hilara gamma - 
 Hilara garretti - 
@@ -785,8 +1016,43 @@
 Hilara granditarsis - 
 Hilara griseola - 
 Hilara grisescens
-H
-Hilara hasankoci - 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Hilara</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hilara</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hilara hasankoci - 
 Hilara heixu - 
 Hilara helvetica - 
 Hilara heterogastra - 
@@ -804,8 +1070,43 @@
 Hilara hyposeta - 
 Hilara hystricoides - 
 Hilara hystrix
-I
-Hilara immerens - 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Hilara</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hilara</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hilara immerens - 
 Hilara implicata - 
 Hilara incertula - 
 Hilara infans - 
@@ -818,19 +1119,124 @@
 Hilara isaanensis - 
 Hilara israelica - 
 Hilara itoi
-J
-Hilara japonica - 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Hilara</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hilara</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hilara japonica - 
 Hilara joannae - 
 Hilara johnsoni - 
 Hilara juno
-K
-Hilara kambaitiensis - 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Hilara</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hilara</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hilara kambaitiensis - 
 Hilara kawarabatai - 
 Hilara kervillei - 
 Hilara khola - 
 Hilara kyushuensis
-L
-Hilara lacteipennis - 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Hilara</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hilara</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hilara lacteipennis - 
 Hilara lactescens - 
 Hilara laeta - 
 Hilara lamellifera - 
@@ -860,8 +1266,43 @@
 Hilara lutea - 
 Hilara luteihalterata - 
 Hilara lutrolimbata
-M
-Hilara macedoniaensis - 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Hilara</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hilara</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hilara macedoniaensis - 
 Hilara macedonica - 
 Hilara macquarti - 
 Hilara macroptera - 
@@ -907,8 +1348,43 @@
 Hilara mroga - 
 Hilara munda - 
 Hilara mutabilis
-N
-Hilara nadolna - 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Hilara</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hilara</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hilara nadolna - 
 Hilara nana - 
 Hilara nearctica - 
 Hilara neglecta - 
@@ -930,16 +1406,86 @@
 Hilara novakii - 
 Hilara nubila - 
 Hilara nugax
-O
-Hilara obscura - 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Hilara</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hilara</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hilara obscura - 
 Hilara obscuritarsis - 
 Hilara occipitalis - 
 Hilara omega - 
 Hilara orientalis - 
 Hilara orilasiochira - 
 Hilara ozerovi
-P
-Hilara pachyneura - 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Hilara</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hilara</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hilara pachyneura - 
 Hilara pallala - 
 Hilara pallens - 
 Hilara palmarum - 
@@ -975,8 +1521,43 @@
 Hilara pulchripes - 
 Hilara pulchristriata - 
 Hilara pygialis
-Q
-Hilara qinlingensis - 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Hilara</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hilara</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hilara qinlingensis - 
 Hilara quadriclavata - 
 Hilara quadrifaria - 
 Hilara quadrifasciata - 
@@ -984,8 +1565,43 @@
 Hilara quadriseta - 
 Hilara quadrivitata - 
 Hilara quadrula
-R
-Hilara ragasides - 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Hilara</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hilara</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hilara ragasides - 
 Hilara razvani - 
 Hilara recedens - 
 Hilara recurva - 
@@ -999,8 +1615,43 @@
 Hilara rufipes - 
 Hilara rufithorax - 
 Hilara rufopuncta
-S
-Hilara sanctaecrucis - 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Hilara</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hilara</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hilara sanctaecrucis - 
 Hilara sartor - 
 Hilara schachti - 
 Hilara scrobiculata - 
@@ -1036,8 +1687,43 @@
 Hilara subpennata - 
 Hilara sulcitarsis - 
 Hilara suspecta
-T
-Hilara tabarkensis - 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Hilara</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hilara</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hilara tabarkensis - 
 Hilara tanychira - 
 Hilara tanythrix - 
 †Hilara tarda - 
@@ -1067,8 +1753,43 @@
 Hilara tupinamba - 
 Hilara turcica - 
 Hilara tyrolensis
-U
-Hilara umbrosa - 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Hilara</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hilara</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hilara umbrosa - 
 Hilara uncicauda - 
 Hilara unguicauda - 
 Hilara unguicella - 
@@ -1076,8 +1797,43 @@
 Hilara upsilon - 
 Hilara urophora - 
 Hilara urophylla
-V
-Hilara varipennis - 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Hilara</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hilara</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hilara varipennis - 
 Hilara vector - 
 Hilara veletica - 
 Hilara veltmani - 
@@ -1089,15 +1845,120 @@
 Hilara vinnensis - 
 Hilara vistula - 
 Hilara vltavensis
-W
-Hilara wheeleri - 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Hilara</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hilara</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hilara wheeleri - 
 Hilara woodi - 
 Hilara woodiella - 
 Hilara wuorentausi
-X
-Hilara xui 
-Z
-Hilara zermattensis - 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Hilara</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hilara</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hilara xui 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Hilara</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hilara</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hilara zermattensis - 
 Hilara zeyaensis - 
 Hilara zhejiangensis - 
 Hilara zhouzhiensis
